--- a/JackEEMS/Results/snow.xlsx
+++ b/JackEEMS/Results/snow.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -422,170 +422,133 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NB4</t>
+          <t>SA4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NB4</t>
+          <t>SA4</t>
         </is>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.008441066269206488</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.00710453981435144</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>-2.7105054312138e-021</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.541098841762901e-021</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>NB4</t>
+          <t>SA4</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>NB4</t>
-        </is>
+          <t>SA4</t>
+        </is>
+      </c>
+      <c r="L2">
+        <v>7.209257061036993e-018</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SA4</t>
-        </is>
+          <t>SB4</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>0.7472864864219863</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SA4</t>
+          <t>SB4</t>
         </is>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.2658366176698337</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.1124978029559702</v>
       </c>
       <c r="F3">
-        <v>-3.049318610115481e-019</v>
+        <v>0.03835931895512701</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.02840528427414957</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01037008957132449</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>SA4</t>
-        </is>
+          <t>SB4</t>
+        </is>
+      </c>
+      <c r="J3">
+        <v>0.9942924418316242</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>SA4</t>
+          <t>SB4</t>
         </is>
       </c>
       <c r="L3">
-        <v>-8.586658622880653e-017</v>
+        <v>0.1710086855856379</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SB4</t>
+          <t>SC4</t>
         </is>
       </c>
       <c r="B4">
-        <v>0.9932104143164261</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SB4</t>
+          <t>SC4</t>
         </is>
       </c>
       <c r="D4">
-        <v>0.1509410782863494</v>
+        <v>0.06099400661444376</v>
       </c>
       <c r="E4">
-        <v>0.06431332274287119</v>
+        <v>0.03561927348592597</v>
       </c>
       <c r="F4">
-        <v>0.0158469234299651</v>
+        <v>0.008267365948094962</v>
       </c>
       <c r="G4">
-        <v>0.008361653560044591</v>
+        <v>8.802257004192349e-005</v>
       </c>
       <c r="H4">
-        <v>0.003281314419012249</v>
+        <v>0.0007653758225975027</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>SB4</t>
+          <t>SC4</t>
         </is>
       </c>
       <c r="J4">
-        <v>1.040437803545914</v>
+        <v>1.768443837152461e+016</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>SB4</t>
+          <t>SC4</t>
         </is>
       </c>
       <c r="L4">
-        <v>0.1006151497408371</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>SC4</t>
-        </is>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>SC4</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0.006863169385620704</v>
-      </c>
-      <c r="F5">
-        <v>-5.421010862427522e-020</v>
-      </c>
-      <c r="G5">
-        <v>-1.246832498358336e-019</v>
-      </c>
-      <c r="H5">
-        <v>5.421010862427522e-020</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>SC4</t>
-        </is>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>SC4</t>
-        </is>
-      </c>
-      <c r="L5">
-        <v>-3.965439349422687e-019</v>
+        <v>0.01943838216883266</v>
       </c>
     </row>
   </sheetData>
